--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2465327637189656</v>
+        <v>-0.2489575877753215</v>
       </c>
       <c r="D2">
-        <v>0.8052999819343731</v>
+        <v>0.8057030807601888</v>
       </c>
       <c r="E2">
         <v>9.11424723548325</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4376438668595314</v>
+        <v>-0.3483473062333099</v>
       </c>
       <c r="D3">
-        <v>0.6617007560885138</v>
+        <v>0.730890740844286</v>
       </c>
       <c r="E3">
         <v>9.11424723548325</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.478789242120501</v>
+        <v>-2.134569066848549</v>
       </c>
       <c r="D4">
-        <v>0.01328050530761526</v>
+        <v>0.04418538521563287</v>
       </c>
       <c r="E4">
         <v>9.11424723548325</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.200312135714688</v>
+        <v>-1.829870204051465</v>
       </c>
       <c r="D5">
-        <v>0.02792052953354918</v>
+        <v>0.08085396584447979</v>
       </c>
       <c r="E5">
         <v>9.11424723548325</v>
@@ -531,7 +531,7 @@
         <v>12.11419076529532</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.3017120660598161</v>
+        <v>-0.2389559571122948</v>
       </c>
       <c r="D6">
-        <v>0.7629089336336405</v>
+        <v>0.8133516985237434</v>
       </c>
       <c r="E6">
         <v>9.365025259986066</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.757080936883221</v>
+        <v>-1.737557501603092</v>
       </c>
       <c r="D7">
-        <v>0.07908626279072184</v>
+        <v>0.09626981989854833</v>
       </c>
       <c r="E7">
         <v>9.365025259986066</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.146766882543067</v>
+        <v>-2.006773555597452</v>
       </c>
       <c r="D8">
-        <v>0.03195471835184382</v>
+        <v>0.05721786415425756</v>
       </c>
       <c r="E8">
         <v>9.365025259986066</v>
@@ -609,7 +609,7 @@
         <v>12.11419076529532</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.471806799139858</v>
+        <v>-1.581004099212165</v>
       </c>
       <c r="D9">
-        <v>0.1412604606099896</v>
+        <v>0.1281484256702587</v>
       </c>
       <c r="E9">
         <v>9.65600204045251</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.176980942723939</v>
+        <v>-1.865178419927265</v>
       </c>
       <c r="D10">
-        <v>0.02962088175244015</v>
+        <v>0.07555025246441782</v>
       </c>
       <c r="E10">
         <v>9.65600204045251</v>
@@ -661,7 +661,7 @@
         <v>12.11419076529532</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.2667804118432325</v>
+        <v>-0.3396166242535306</v>
       </c>
       <c r="D11">
-        <v>0.7896709976348597</v>
+        <v>0.7373661014924631</v>
       </c>
       <c r="E11">
         <v>11.66786936158432</v>
